--- a/平台方/平台方_需求分析+接口数据_郭龙涛.xlsx
+++ b/平台方/平台方_需求分析+接口数据_郭龙涛.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guolongtao\Desktop\临时用_用完删除内容\共享车位\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guolongtao\Desktop\临时用_用完删除内容\共享车位\git_1\平台方\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C89D6-D1A9-49DA-AE7E-456A45D26949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A9B0E6-00A3-4231-85ED-3FEE446CBA0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AD0490D9-D08B-46AC-B315-DD8C4B3178CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{AD0490D9-D08B-46AC-B315-DD8C4B3178CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="平台方需求分析" sheetId="2" r:id="rId1"/>
-    <sheet name="接口数据" sheetId="3" r:id="rId2"/>
-    <sheet name="草稿" sheetId="1" r:id="rId3"/>
+    <sheet name="没有问题的接口 (3)" sheetId="16" r:id="rId1"/>
+    <sheet name="平台方需求分析" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'没有问题的接口 (3)'!$A$1:$F$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="293">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车辆相关_位置管理_删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆相关_位置管理_修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,34 +573,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车辆相关_汽车管理_增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆相关_汽车管理_删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车辆相关_汽车管理_修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆相关_汽车管理_查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核管理_订单投诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核管理_订单退款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核管理_出租房信息审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核管理_物业审核_删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核管理_物业审核_一键审批所选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核管理_车位审核_增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,37 +605,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户管理_出租方_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理_抢租客_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理_物业方_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理_平台方_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.159.131:8080/SharedParkingPlace/admin/auditsManagement/parkinginformation/</t>
   </si>
   <si>
-    <t>小结：注意增加的数据，所有接口数据抓取完毕后，数据库进行重置操作，去除添加的数据，删除的数据，恢复修改的数据，测试时候，先添加，再修改，再查询，最后删除（如果避免了增加的数据，被删除，导致修改和查询如果使用的是同一组数据，则会出现错误）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b114bb4a-7782-4480-9cd4-e9c4726d648a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太平山停车场第3号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改了详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"locationid":"4006","parkingsizeid":"1","uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","detailslocation":"太平山停车场第5号","parkingstatus":"5","parkingnumber":"4","parkingid":"54577"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,6 +633,452 @@
   </si>
   <si>
     <t>{"total":7,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":7,"page":1,"rows":10,"pagecount":1},"rows":[{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","roleid":1,"statusid":5,"uname":"出租方1","upass":"202cb962ac59075b964b07152d234b70","phone":"15701983323","photo":"/images/e49b8177-9782-4850-944e-910f26fb3abc.jpg","nickname":"任欣","sex":1},"parkingphotos":[{"carphotoid":32001,"carid":54574,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32002,"carid":54574,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32003,"carid":54574,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32004,"carid":54574,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54574,"locationid":4006,"parkingsizeid":1,"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","detailslocation":"太平山停车场第1号","parkingstatus":0,"parkingnumber":"1"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","roleid":1,"statusid":5,"uname":"出租方1","upass":"202cb962ac59075b964b07152d234b70","phone":"15701983323","photo":"/images/e49b8177-9782-4850-944e-910f26fb3abc.jpg","nickname":"任欣","sex":1},"parkingphotos":[{"carphotoid":32005,"carid":54575,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32006,"carid":54575,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32007,"carid":54575,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32008,"carid":54575,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54575,"locationid":4006,"parkingsizeid":1,"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","detailslocation":"太平山停车场第2号","parkingstatus":0,"parkingnumber":"2"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","roleid":1,"statusid":5,"uname":"出租方2","upass":"202cb962ac59075b964b07152d234b70","phone":"13200177909","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"闾克轮","sex":0},"parkingphotos":[{"carphotoid":32009,"carid":54576,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32010,"carid":54576,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32011,"carid":54576,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32012,"carid":54576,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54576,"locationid":4006,"parkingsizeid":1,"uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","detailslocation":"太平山停车场第3号","parkingstatus":5,"parkingnumber":"3"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","roleid":1,"statusid":5,"uname":"出租方2","upass":"202cb962ac59075b964b07152d234b70","phone":"13200177909","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"闾克轮","sex":0},"parkingphotos":[{"carphotoid":32013,"carid":54577,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32014,"carid":54577,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32015,"carid":54577,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32016,"carid":54577,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54577,"locationid":4006,"parkingsizeid":1,"uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","detailslocation":"太平山停车场第5号","parkingstatus":5,"parkingnumber":"4"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","roleid":1,"statusid":5,"uname":"出租方1","upass":"202cb962ac59075b964b07152d234b70","phone":"15701983323","photo":"/images/e49b8177-9782-4850-944e-910f26fb3abc.jpg","nickname":"任欣","sex":1},"parkingphotos":[],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":58575,"locationid":4006,"parkingsizeid":1,"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","detailslocation":"1","parkingstatus":5,"parkingnumber":"30"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","roleid":1,"statusid":5,"uname":"出租方1","upass":"202cb962ac59075b964b07152d234b70","phone":"15701983323","photo":"/images/e49b8177-9782-4850-944e-910f26fb3abc.jpg","nickname":"任欣","sex":1},"parkingphotos":[],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":58576,"locationid":4006,"parkingsizeid":1,"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","detailslocation":"1范德萨发的是","parkingstatus":5,"parkingnumber":"1"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","roleid":1,"statusid":5,"uname":"出租方2","upass":"202cb962ac59075b964b07152d234b70","phone":"13200177909","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"闾克轮","sex":0},"parkingphotos":[],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":66569,"locationid":4006,"parkingsizeid":1,"uid":"b114bb4a-7782-4480-9cd4-e9c4726d648a","detailslocation":"太平山停车场第6号","parkingstatus":5,"parkingnumber":"3"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/auditsManagement/parkinginformation/4008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/location/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有信息上修改：地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"locationaddress":"太平山停车场第二层","longitude":"108.932114975174","latitude":"34.3407485962401","uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有信息基础上修改：地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"locationaddress":"浙江路停车场一楼","longitude":"109.06403214639364","latitude":"34.280422559376944","uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","locationid":"4007"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/location/?uid=&amp;locationaddress=嘉义街停车场&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":2,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":2,"page":1,"rows":10,"pagecount":1},"rows":[{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"31add5a5-df7b-426c-98c6-73624458be3c","roleid":3,"statusid":5,"uname":"物业3","upass":"202cb962ac59075b964b07152d234b70","phone":"15901473529","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4009,"uid":"31add5a5-df7b-426c-98c6-73624458be3c","longitude":108.97545292040441,"latitude":34.32555906994713,"locationaddress":"嘉义街停车场"},{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"9626236a-e618-4592-b55b-611460c45b3e","roleid":3,"statusid":5,"uname":"物业572","upass":"202cb962ac59075b964b07152d234b70","phone":"13203830798","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4578,"uid":"9626236a-e618-4592-b55b-611460c45b3e","longitude":109.00017100939961,"latitude":34.316983796131495,"locationaddress":"嘉义街停车场"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用地址查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/car/CarController/?platenumber=陕E100033&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用车牌号查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":1,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":1,"page":1,"rows":10,"pagecount":1,"tenant":null,"carid":null,"uid":null,"platenumber":"陕E100033","cartype":null,"remark":null},"rows":[{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"tenant":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"04a65817-703a-4b76-b88b-ca2bbba602d5","roleid":2,"statusid":5,"uname":"抢租客农妍园1","upass":"202cb962ac59075b964b07152d234b70","phone":"13405338534","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","tenantidentityinformation":null,"tenantnickname":"农妍园","tenantcreditlevel":"良好","tenantsex":1},"carid":502,"uid":"04a65817-703a-4b76-b88b-ca2bbba602d5","platenumber":"陕E100033","cartype":"小型","remark":null}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/car/CarController/498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/property/</t>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/property/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"statusid":"1","propertycertificateid":"test1","propertyintroduce":"test1","uid":"e511f47a-90ae-4c5c-9ffb-4e75feb80d8e"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/property/e511f47a-90ae-4c5c-9ffb-4e75feb80d8e</t>
+  </si>
+  <si>
+    <t>{"locationid":"4008","parkingsizeid":"1","uid":"11b73f87-aedd-4bc5-aebf-16b4b0151d66","detailslocation":"巨野大厦停车场第7号","parkingstatus":"5","parkingnumber":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"parkingid":"54577","parkingstatus":"5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"locationid":"4007","parkingsizeid":"1","uid":"82820848-9abe-48c9-9a1e-de8bc40c33e5","detailslocation":"浙江路停车场第3号","parkingstatus":"5","parkingnumber":"12","parkingid":"54580"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/auditsManagement/parkinginformation/?uid=&amp;locationid=4007&amp;parkingsizeid=&amp;parkingstatus=&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据位置id查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":4,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":4,"page":1,"rows":10,"pagecount":1},"rows":[{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"629951d2-f5c7-449b-b679-a392d4136abc","roleid":1,"statusid":5,"uname":"出租方3","upass":"202cb962ac59075b964b07152d234b70","phone":"13305261768","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"尹诚","sex":0},"parkingphotos":[{"carphotoid":32017,"carid":54578,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32018,"carid":54578,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32019,"carid":54578,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32020,"carid":54578,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","roleid":3,"statusid":5,"uname":"物业1","upass":"202cb962ac59075b964b07152d234b70","phone":"13102420340","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4007,"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","longitude":109.06403214639364,"latitude":34.280422559376944,"locationaddress":"浙江路停车场一楼"},"prices":[{"locationid":4007,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":23}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54578,"locationid":4007,"parkingsizeid":1,"uid":"629951d2-f5c7-449b-b679-a392d4136abc","detailslocation":"浙江路停车场第1号","parkingstatus":5,"parkingnumber":"1"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"629951d2-f5c7-449b-b679-a392d4136abc","roleid":1,"statusid":5,"uname":"出租方3","upass":"202cb962ac59075b964b07152d234b70","phone":"13305261768","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"尹诚","sex":0},"parkingphotos":[{"carphotoid":32021,"carid":54579,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32022,"carid":54579,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32023,"carid":54579,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32024,"carid":54579,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","roleid":3,"statusid":5,"uname":"物业1","upass":"202cb962ac59075b964b07152d234b70","phone":"13102420340","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4007,"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","longitude":109.06403214639364,"latitude":34.280422559376944,"locationaddress":"浙江路停车场一楼"},"prices":[{"locationid":4007,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":23}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54579,"locationid":4007,"parkingsizeid":1,"uid":"629951d2-f5c7-449b-b679-a392d4136abc","detailslocation":"浙江路停车场第2号","parkingstatus":5,"parkingnumber":"2"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"82820848-9abe-48c9-9a1e-de8bc40c33e5","roleid":1,"statusid":5,"uname":"出租方4","upass":"202cb962ac59075b964b07152d234b70","phone":"15208316314","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"祖茗芳","sex":1},"parkingphotos":[{"carphotoid":32025,"carid":54580,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32026,"carid":54580,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32027,"carid":54580,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32028,"carid":54580,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","roleid":3,"statusid":5,"uname":"物业1","upass":"202cb962ac59075b964b07152d234b70","phone":"13102420340","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4007,"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","longitude":109.06403214639364,"latitude":34.280422559376944,"locationaddress":"浙江路停车场一楼"},"prices":[{"locationid":4007,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":23}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54580,"locationid":4007,"parkingsizeid":1,"uid":"82820848-9abe-48c9-9a1e-de8bc40c33e5","detailslocation":"浙江路停车场第3号","parkingstatus":5,"parkingnumber":"12"},{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"82820848-9abe-48c9-9a1e-de8bc40c33e5","roleid":1,"statusid":5,"uname":"出租方4","upass":"202cb962ac59075b964b07152d234b70","phone":"15208316314","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"祖茗芳","sex":1},"parkingphotos":[{"carphotoid":32029,"carid":54581,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32030,"carid":54581,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32031,"carid":54581,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32032,"carid":54581,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","roleid":3,"statusid":5,"uname":"物业1","upass":"202cb962ac59075b964b07152d234b70","phone":"13102420340","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4007,"uid":"4ec2370b-9315-43d6-b2b9-43ed8f491417","longitude":109.06403214639364,"latitude":34.280422559376944,"locationaddress":"浙江路停车场一楼"},"prices":[{"locationid":4007,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":23}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54581,"locationid":4007,"parkingsizeid":1,"uid":"82820848-9abe-48c9-9a1e-de8bc40c33e5","detailslocation":"浙江路停车场第4号","parkingstatus":5,"parkingnumber":"4"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_出租方_增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_出租方_修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_出租方_查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_出租方_删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_抢租客_增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_抢租客_查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_抢租客_修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_抢租客_删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_物业方_增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_物业方_查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_物业方_修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_物业方_删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_平台方_增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_平台方_修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理_平台方_删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/lessor/</t>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/lessor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"伽罗","nickname":"射手","phone":"15175293529","upass":"cx9915","sex":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/lessor/?uname=伽罗&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":1,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":1,"page":1,"rows":10,"pagecount":1},"rows":[{"accountstatus":{"accountstatusid":3,"accountstatusname":"等待物业审核"},"role":{"roleid":1,"rolename":"出租方"},"uid":"c7834f55-e892-4076-a278-6ec856ba8ccf","roleid":1,"statusid":3,"uname":"伽罗","upass":"21e64b6fab49a82691f14419446277d5","phone":"15175293529","photo":null,"nickname":"射手","sex":0}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"伽罗禁止","nickname":"射手","phone":"15175293529","upass":"21e64b6fab49a82691f14419446277d5","sex":"0","uid":"c7834f55-e892-4076-a278-6ec856ba8ccf"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/lessor/00040232-638c-4e98-8b33-5693858ad6b6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/tenant/</t>
+  </si>
+  <si>
+    <t>{"uname":"后裔","tenantnickname":"最没用射手","phone":"18740752690","upass":"cx9915","tenantsex":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/tenant/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"佩奇","tenantnickname":"咎乐2","phone":"15100671504","upass":"202cb962ac59075b964b07152d234b70","tenantsex":"0","uid":"03703044-1027-4b8f-924c-bf19292a34c9"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/tenant/?phone=13803903594&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":1,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":1,"page":1,"rows":10,"pagecount":1},"rows":[{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"0abf9659-004d-4a4a-b33c-eb05b6e7e10c","roleid":2,"statusid":5,"uname":"抢租客籍晓昭66","upass":"202cb962ac59075b964b07152d234b70","phone":"13803903594","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","tenantidentityinformation":null,"tenantnickname":"籍晓昭","tenantcreditlevel":"良好","tenantsex":0}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"王者峡谷","phone":"15009191012","propertyintroduce":"峡谷管理","propertycertificateid":"test","upass":"cx45678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/property/?phone=15207698277&amp;page=1&amp;rows=10</t>
+  </si>
+  <si>
+    <t>{"total":1,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":1,"page":1,"rows":10,"pagecount":1},"rows":[{"accountstatus":{"accountstatusid":0,"accountstatusname":"已删除"},"role":{"roleid":3,"rolename":"物业"},"uid":"002c39fc-904c-47ba-9f37-829005565f73","roleid":3,"statusid":0,"uname":"物业721","upass":"202cb962ac59075b964b07152d234b70","phone":"15207698277","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"物业1936","phone":"15604431593","propertyintroduce":"123","propertycertificateid":"123","upass":"202cb962ac59075b964b07152d234b70","uid":"0099e9df-d432-497a-a719-1bc39fa9e9c1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/property/00e1d896-066a-4f27-9245-9d5dab838f71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/platform/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"鲁班","phone":"15009191013","upass":"查询2345"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uname":"出租方1892","phone":"13108027658","upass":"202cb962ac59075b964b07152d234b70","uid":"0031e1e1-aa0d-49c9-b277-d65919e0225a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/platform/00445983-59e3-476b-a6b7-2212cec1c77f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理_查看订单_修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理_查看订单_查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理_查看订单_删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理_评价管理_查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理_评价管理_删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/Orders/OrdersController/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orderid":["426","426"],"parkingid":"54575","carid":"498","unitprice":"19","orderstatus":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/Orders/OrdersController/?orderstatus=1&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":5,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":5,"page":1,"rows":10,"pagecount":1,"car":null,"parkinginformation":null,"orderid":null,"parkingid":null,"carid":null,"begintime":null,"overtime":null,"unitprice":null,"orderstatus":1},"rows":[{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"car":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"tenant":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","roleid":2,"statusid":5,"uname":"抢租客0","upass":"202cb962ac59075b964b07152d234b70","phone":"15601588024","photo":"/images/f1019bf9-170d-40d0-88d2-b3f1cb2d319b.jpg","tenantidentityinformation":null,"tenantnickname":"夔生腾","tenantcreditlevel":"良好","tenantsex":0},"carid":498,"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","platenumber":"陕C100003","cartype":"小型","remark":"0"},"parkinginformation":{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","roleid":1,"statusid":5,"uname":"出租方1","upass":"202cb962ac59075b964b07152d234b70","phone":"15701983323","photo":"/images/e49b8177-9782-4850-944e-910f26fb3abc.jpg","nickname":"任欣","sex":1},"parkingphotos":[{"carphotoid":32005,"carid":54575,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32006,"carid":54575,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32007,"carid":54575,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":32008,"carid":54575,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","roleid":3,"statusid":5,"uname":"物业0","upass":"202cb962ac59075b964b07152d234b70","phone":"15206634900","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4006,"uid":"41d74628-f287-475b-b1ab-bdf6f2aa6dfc","longitude":108.9321149751744,"latitude":34.340748596240196,"locationaddress":"太平山停车场"},"prices":[{"locationid":4006,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":16}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":54575,"locationid":4006,"parkingsizeid":1,"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","detailslocation":"太平山停车场第2号","parkingstatus":0,"parkingnumber":"2"},"orderid":426,"parkingid":54575,"carid":498,"begintime":"2019-06-26T00:00:00.000+0800","overtime":"2019-06-27T00:00:00.000+0800","unitprice":19,"orderstatus":1},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"car":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"tenant":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","roleid":2,"statusid":5,"uname":"抢租客0","upass":"202cb962ac59075b964b07152d234b70","phone":"15601588024","photo":"/images/f1019bf9-170d-40d0-88d2-b3f1cb2d319b.jpg","tenantidentityinformation":null,"tenantnickname":"夔生腾","tenantcreditlevel":"良好","tenantsex":0},"carid":498,"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","platenumber":"陕C100003","cartype":"小型","remark":"0"},"parkinginformation":{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"3f729efc-8f1a-4b53-b7db-fc8c8a1d4310","roleid":1,"statusid":5,"uname":"出租方679","upass":"202cb962ac59075b964b07152d234b70","phone":"15507263817","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"柯菲","sex":0},"parkingphotos":[{"carphotoid":37429,"carid":55931,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":37430,"carid":55931,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":37431,"carid":55931,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":37432,"carid":55931,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"d730c905-b6ae-4f1b-b092-567cb20993ff","roleid":3,"statusid":5,"uname":"物业339","upass":"202cb962ac59075b964b07152d234b70","phone":"13803011776","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4345,"uid":"d730c905-b6ae-4f1b-b092-567cb20993ff","longitude":108.95154376457599,"latitude":34.27847341821422,"locationaddress":"四方街停车场"},"prices":[{"locationid":4345,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":19}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":55931,"locationid":4345,"parkingsizeid":1,"uid":"3f729efc-8f1a-4b53-b7db-fc8c8a1d4310","detailslocation":"四方街停车场第2号","parkingstatus":4,"parkingnumber":"2"},"orderid":431,"parkingid":55931,"carid":498,"begintime":"2019-06-27T00:00:00.000+0800","overtime":"2019-06-30T00:00:00.000+0800","unitprice":57,"orderstatus":1},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"car":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"tenant":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","roleid":2,"statusid":5,"uname":"抢租客0","upass":"202cb962ac59075b964b07152d234b70","phone":"15601588024","photo":"/images/f1019bf9-170d-40d0-88d2-b3f1cb2d319b.jpg","tenantidentityinformation":null,"tenantnickname":"夔生腾","tenantcreditlevel":"良好","tenantsex":0},"carid":498,"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","platenumber":"陕C100003","cartype":"小型","remark":"0"},"parkinginformation":{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"3b489272-d43f-479d-bcab-206ba2e74b6a","roleid":1,"statusid":5,"uname":"出租方965","upass":"202cb962ac59075b964b07152d234b70","phone":"13902705106","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"甫昭君","sex":1},"parkingphotos":[{"carphotoid":39717,"carid":56503,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":39718,"carid":56503,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":39719,"carid":56503,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":39720,"carid":56503,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"fcc79fdb-e85e-4f96-acbf-fa04633efa14","roleid":3,"statusid":5,"uname":"物业482","upass":"202cb962ac59075b964b07152d234b70","phone":"13701762414","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4488,"uid":"fcc79fdb-e85e-4f96-acbf-fa04633efa14","longitude":108.97169768463863,"latitude":34.275610326354524,"locationaddress":"康城街停车场"},"prices":[{"locationid":4488,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":13}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":56503,"locationid":4488,"parkingsizeid":1,"uid":"3b489272-d43f-479d-bcab-206ba2e74b6a","detailslocation":"康城街停车场第2号","parkingstatus":4,"parkingnumber":"2"},"orderid":432,"parkingid":56503,"carid":498,"begintime":"2019-06-27T00:00:00.000+0800","overtime":"2019-06-28T00:00:00.000+0800","unitprice":13,"orderstatus":1},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"car":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"tenant":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","roleid":2,"statusid":5,"uname":"抢租客0","upass":"202cb962ac59075b964b07152d234b70","phone":"15601588024","photo":"/images/f1019bf9-170d-40d0-88d2-b3f1cb2d319b.jpg","tenantidentityinformation":null,"tenantnickname":"夔生腾","tenantcreditlevel":"良好","tenantsex":0},"carid":498,"uid":"6091a5ba-25bd-4a5e-aa8a-27f6b8f80632","platenumber":"陕C100003","cartype":"小型","remark":"0"},"parkinginformation":{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"2cba2f57-b9fd-46e4-9aec-518ddf59e84b","roleid":1,"statusid":5,"uname":"出租方680","upass":"202cb962ac59075b964b07152d234b70","phone":"13502527617","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"奚良","sex":1},"parkingphotos":[{"carphotoid":37433,"carid":55932,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":37434,"carid":55932,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":37435,"carid":55932,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":37436,"carid":55932,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"d730c905-b6ae-4f1b-b092-567cb20993ff","roleid":3,"statusid":5,"uname":"物业339","upass":"202cb962ac59075b964b07152d234b70","phone":"13803011776","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4345,"uid":"d730c905-b6ae-4f1b-b092-567cb20993ff","longitude":108.95154376457599,"latitude":34.27847341821422,"locationaddress":"四方街停车场"},"prices":[{"locationid":4345,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":19}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":55932,"locationid":4345,"parkingsizeid":1,"uid":"2cba2f57-b9fd-46e4-9aec-518ddf59e84b","detailslocation":"四方街停车场第3号","parkingstatus":4,"parkingnumber":"3"},"orderid":434,"parkingid":55932,"carid":498,"begintime":"2019-06-30T00:00:00.000+0800","overtime":"2019-07-01T00:00:00.000+0800","unitprice":19,"orderstatus":1},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"car":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"tenant":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"02ea01c2-0799-4831-a717-fde86da9ed94","roleid":2,"statusid":5,"uname":"抢租客周友2","upass":"202cb962ac59075b964b07152d234b70","phone":"15802792107","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","tenantidentityinformation":null,"tenantnickname":"周友","tenantcreditlevel":"良好","tenantsex":0},"carid":504,"uid":"02ea01c2-0799-4831-a717-fde86da9ed94","platenumber":"陕D100061","cartype":"小型","remark":"0"},"parkinginformation":{"lessor":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"91366db2-1666-491c-9b5d-b72f53479096","roleid":1,"statusid":5,"uname":"出租方1199","upass":"202cb962ac59075b964b07152d234b70","phone":"13302767492","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","nickname":"酆玲毓","sex":1},"parkingphotos":[{"carphotoid":41585,"carid":56970,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2798e4b2ed1f847b0bf22c0b8e6f81a82.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":41586,"carid":56970,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v2282cec2e6e644f33b3f78a6714f5113b.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":41587,"carid":56970,"photodestinaton":"https://pic2.58cdn.com.cn/mobile/big/n_v23bbd613762374f5192ba6913776655ed.jpg?w=640&amp;h=480&amp;crop=1"},{"carphotoid":41588,"carid":56970,"photodestinaton":"https://pic7.58cdn.com.cn/mobile/big/n_v207f9f5fbe5be4e25a76cdf35f594f219.jpg?w=640&amp;h=480&amp;crop=1"}],"location":{"property":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":3,"rolename":"物业"},"uid":"764590ef-5c2b-4553-99ea-fe3316965051","roleid":3,"statusid":5,"uname":"物业599","upass":"202cb962ac59075b964b07152d234b70","phone":"13904443999","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg","propertycertificateid":null,"propertyintroduce":null},"locationid":4605,"uid":"764590ef-5c2b-4553-99ea-fe3316965051","longitude":108.95480494255551,"latitude":34.33297351855779,"locationaddress":"武城广场停车场"},"prices":[{"locationid":4605,"parkingsizeid":1,"chargingmethodid":1,"billingmethod":{"billingmethodid":1,"billingmethodname":"按天","billingmethodremark":null},"unitprice":15}],"parkingsize":{"parkingsizeid":1,"parkingsize":"小"},"parkingid":56970,"locationid":4605,"parkingsizeid":1,"uid":"91366db2-1666-491c-9b5d-b72f53479096","detailslocation":"武城广场停车场第1号","parkingstatus":4,"parkingnumber":"1"},"orderid":438,"parkingid":56970,"carid":504,"begintime":"2019-06-30T00:00:00.000+0800","overtime":"2019-07-01T00:00:00.000+0800","unitprice":15,"orderstatus":1}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/Orders/OrdersController/428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/parkingremark/ParkingremarkController/?content=很好找的&amp;page=1&amp;rows=10</t>
+  </si>
+  <si>
+    <t>{"total":7998,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":7998,"page":1,"rows":10,"pagecount":800,"userinfo":null,"remarkid":null,"orderid":null,"uid":null,"remarkscore":null,"content":"很好找的","remarktime":null,"parkingid":null},"rows":[{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"0abf9659-004d-4a4a-b33c-eb05b6e7e10c","roleid":2,"statusid":5,"uname":"抢租客籍晓昭66","upass":"202cb962ac59075b964b07152d234b70","phone":"13803903594","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16160,"orderid":null,"uid":"0abf9659-004d-4a4a-b33c-eb05b6e7e10c","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66553},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"adee4107-537b-4980-b356-16eb45f19508","roleid":2,"statusid":5,"uname":"抢租客雍春薇20","upass":"202cb962ac59075b964b07152d234b70","phone":"15601150566","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16162,"orderid":null,"uid":"adee4107-537b-4980-b356-16eb45f19508","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66554},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"3da2a719-5df5-419c-9478-99ed3dbd4ae5","roleid":2,"statusid":5,"uname":"抢租客熊明会86","upass":"202cb962ac59075b964b07152d234b70","phone":"13001067484","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16164,"orderid":null,"uid":"3da2a719-5df5-419c-9478-99ed3dbd4ae5","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66555},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"afc9e312-b891-4114-9c72-4ae999d25e29","roleid":2,"statusid":5,"uname":"抢租客卞毅33","upass":"202cb962ac59075b964b07152d234b70","phone":"15508767060","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16166,"orderid":null,"uid":"afc9e312-b891-4114-9c72-4ae999d25e29","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66556},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"35106dc7-cd5c-450c-beea-1fa71ca964ab","roleid":2,"statusid":5,"uname":"抢租客连壮裕87","upass":"202cb962ac59075b964b07152d234b70","phone":"15703087328","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16168,"orderid":null,"uid":"35106dc7-cd5c-450c-beea-1fa71ca964ab","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66557},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"c177144b-a7bf-420a-a2bd-75112935a803","roleid":2,"statusid":5,"uname":"抢租客佘荔65","upass":"202cb962ac59075b964b07152d234b70","phone":"15708312158","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16170,"orderid":null,"uid":"c177144b-a7bf-420a-a2bd-75112935a803","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66558},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"35106dc7-cd5c-450c-beea-1fa71ca964ab","roleid":2,"statusid":5,"uname":"抢租客连壮裕87","upass":"202cb962ac59075b964b07152d234b70","phone":"15703087328","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16172,"orderid":null,"uid":"35106dc7-cd5c-450c-beea-1fa71ca964ab","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66559},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"adee4107-537b-4980-b356-16eb45f19508","roleid":2,"statusid":5,"uname":"抢租客雍春薇20","upass":"202cb962ac59075b964b07152d234b70","phone":"15601150566","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16174,"orderid":null,"uid":"adee4107-537b-4980-b356-16eb45f19508","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66560},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":0,"accountstatusname":"已删除"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"1096a106-1ce2-43ad-91fa-38f92e6b5233","roleid":2,"statusid":0,"uname":"抢租客容思8","upass":"202cb962ac59075b964b07152d234b70","phone":"13804057543","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16176,"orderid":null,"uid":"1096a106-1ce2-43ad-91fa-38f92e6b5233","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66561},{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":2,"rolename":"抢租客"},"uid":"505dc6c8-b421-4547-8529-7dd9999b9616","roleid":2,"statusid":5,"uname":"抢租客何邦84","upass":"202cb962ac59075b964b07152d234b70","phone":"13007927776","photo":"https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1561445276983&amp;di=c70258806b4bf1b668811295ee765a91&amp;imgtype=0&amp;src=http%3A%2F%2Fpic31.nipic.com%2F20130705%2F9527735_231540074000_2.jpg"},"remarkid":16178,"orderid":null,"uid":"505dc6c8-b421-4547-8529-7dd9999b9616","remarkscore":null,"content":"很好找的","remarktime":"2019-07-01T12:28:58.000+0800","parkingid":66562}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/parkingremark/ParkingremarkController/16162,16164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理_账户查看_修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/account/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accountstatus":"5","accountbalance":"1001","bindalipay":"15009191011","uid":"00040232-638c-4e98-8b33-5693858ad6b6"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理_平台交易记录查看_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/accountoperation/?outtradeno=20196261991292780&amp;page=1&amp;rows=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"total":1,"page":{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":1,"page":1,"rows":10,"pagecount":1,"fromAccount":null,"toAccount":null,"alipay":null,"userinfo":null,"operatingid":null,"outtradeno":"20196261991292780","uid":null,"accountuid":null,"operatingmode":null,"operatiotime":null,"money":null,"remark":null},"rows":[{"offset":0,"limit":10,"pageNow":1,"pre":0,"next":2,"count":0,"page":1,"rows":10,"pagecount":0,"fromAccount":null,"toAccount":null,"alipay":null,"userinfo":{"accountstatus":{"accountstatusid":5,"accountstatusname":"正常"},"role":{"roleid":1,"rolename":"出租方"},"uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","roleid":1,"statusid":5,"uname":"出租方1","upass":"202cb962ac59075b964b07152d234b70","phone":"15701983323","photo":"/images/e49b8177-9782-4850-944e-910f26fb3abc.jpg"},"operatingid":30,"outtradeno":"20196261991292780","uid":"6ade98f4-a14c-4bf0-a993-8ca936030245","accountuid":null,"operatingmode":3,"operatiotime":"2019-06-26T19:09:35.000+0800","money":100,"remark":"提现成功"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.159.131:8080/SharedParkingPlace/admin/tenant/1096a106-1ce2-43ad-91fa-38f92e6b5233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据支付宝单号进行查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据评论内容，“很好找的”进行查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了详细地址信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据位置id删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据物业电话查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改物业证书等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的物业方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的车位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改物业信息：证书等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了车位号信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的出租房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据出租房名字查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改出租房名字等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的抢租客信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机号查询抢租客信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已存在的抢租客信息中的用户名等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新的物业方信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已存在订单中的部分信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已存在订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单状态查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改账户的支付宝及账户余额信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已存在评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已存在的平台方信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已存在的物业方信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已存在的出租房信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件审核所选的车位审核信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除等待审核的物业信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除已存在汽车管理信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已存在的平台方账号等信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +1086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,24 +1125,6 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -911,14 +1281,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -930,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,71 +1340,110 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="20" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,36 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="20" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1100,55 +1479,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>275670</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8951</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F151DEE-5211-4A9E-95BA-2629CDA541F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4738687" y="0"/>
-          <a:ext cx="4428571" cy="4590476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,11 +1777,788 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FB3DED-2B63-4C5C-9D00-519A78707BDA}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="177.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{DB5C1AD7-932E-48D7-84E0-3339FA610362}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0B8729C5-FBF0-4DA0-91D7-8D0D3711E084}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{13818941-7C23-42D8-A973-7118F31DC794}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{838FFABB-EFD6-41C8-8683-E806D6F304D6}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{5FB1A07D-F02A-43EF-9C8C-CD067BC478EF}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{F4FF58EC-CDCA-4A82-BD9A-9588B24C0143}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{FC147188-7236-484B-8E31-A9DDBC23E82B}"/>
+    <hyperlink ref="B30" r:id="rId8" xr:uid="{3DCBFAEE-4DA2-409A-8495-9062019639F7}"/>
+    <hyperlink ref="B23" r:id="rId9" xr:uid="{0EB0727B-3AEC-43B1-9249-290EB662E9D9}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{634C4DD9-7D52-47C6-892D-6B2DC1A2B78A}"/>
+    <hyperlink ref="B32" r:id="rId11" xr:uid="{D49EA819-A879-4020-ACDB-08FFC75BB45F}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{3177C9F8-CC56-4117-AD45-E5CAB90F4E99}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{A716D44B-545D-48A2-A5AA-834C57FFFC19}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{844440FA-501C-40F1-96CE-A788A317370D}"/>
+    <hyperlink ref="B5" r:id="rId15" xr:uid="{33C5A870-D748-41FD-916B-3A01BD7B4ACD}"/>
+    <hyperlink ref="B34" r:id="rId16" xr:uid="{1156619F-9953-449A-8887-E3CEFA80277B}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{25C24D8E-42C7-4480-A4CC-A9EE87B9962E}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{F76CDCFA-AF5A-4B92-8682-8F9A71ECDA9E}"/>
+    <hyperlink ref="B7" r:id="rId19" xr:uid="{5DE67299-B2C9-4A22-9E8C-3AB60A08A0FD}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{F70E3935-6978-4412-97B1-54C7F7FC8DA5}"/>
+    <hyperlink ref="B36" r:id="rId21" xr:uid="{7A456F7A-04A7-455C-A3D4-7B3D0D7D74B7}"/>
+    <hyperlink ref="B8" r:id="rId22" xr:uid="{05707C03-5A88-4E78-BDFD-9934B00E1E2F}"/>
+    <hyperlink ref="B37" r:id="rId23" xr:uid="{08423FA3-57DD-4146-92A0-DF75B14541E9}"/>
+    <hyperlink ref="B18" r:id="rId24" xr:uid="{DF8CD8B1-D65C-4219-8A6A-7B19BBA2EF7A}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{8D716B8C-8937-428B-84BA-2D82CAA3A14E}"/>
+    <hyperlink ref="B10" r:id="rId26" xr:uid="{ADFDB6DC-7A2F-44A4-83EC-789235BFCA30}"/>
+    <hyperlink ref="B38" r:id="rId27" xr:uid="{BF7A0E12-0176-47C5-8E5B-6A774FCAB505}"/>
+    <hyperlink ref="B20" r:id="rId28" xr:uid="{E3F543F6-2937-4277-A50A-D85944B53ACC}"/>
+    <hyperlink ref="B6" r:id="rId29" xr:uid="{E9A2C96B-D1B1-4C72-B59A-D4E445113DD3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFF1B3F-7481-461B-B170-2B2C69D67167}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1461,7 +2568,7 @@
     <col min="4" max="4" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.44140625" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,7 +2595,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7"/>
@@ -1497,11 +2604,11 @@
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1509,12 +2616,12 @@
         <v>67</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="48" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1522,10 +2629,10 @@
         <v>68</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="41"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1533,10 +2640,10 @@
         <v>69</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="41"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1544,10 +2651,10 @@
         <v>70</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="41"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1555,10 +2662,10 @@
         <v>71</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="41"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1566,21 +2673,21 @@
         <v>9</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="41"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="41"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1588,10 +2695,10 @@
         <v>39</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="41"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1599,12 +2706,12 @@
         <v>72</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1612,10 +2719,10 @@
         <v>73</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="41"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1623,10 +2730,10 @@
         <v>74</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="41"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1634,21 +2741,21 @@
         <v>75</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="41"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1656,10 +2763,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="41"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1667,10 +2774,10 @@
         <v>77</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="41"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1678,10 +2785,10 @@
         <v>46</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1689,12 +2796,12 @@
         <v>78</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1702,10 +2809,10 @@
         <v>79</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="41"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1713,10 +2820,10 @@
         <v>80</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="41"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1724,10 +2831,10 @@
         <v>81</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="41"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1735,10 +2842,10 @@
         <v>82</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="41"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1746,10 +2853,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="41"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1757,10 +2864,10 @@
         <v>83</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="41"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1768,203 +2875,203 @@
         <v>84</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="41"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="41"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="41"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="41"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>140</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="41"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="41"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="7"/>
-      <c r="G34" s="41"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="41"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="48" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="41"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="41"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="41"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>141</v>
       </c>
       <c r="F40" s="7"/>
-      <c r="G40" s="41"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="41"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="G42" s="41"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="7"/>
-      <c r="G43" s="41"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1972,12 +3079,12 @@
         <v>90</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="48" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1985,10 +3092,10 @@
         <v>91</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="41"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1996,10 +3103,10 @@
         <v>92</v>
       </c>
       <c r="F46" s="7"/>
-      <c r="G46" s="41"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2007,10 +3114,10 @@
         <v>93</v>
       </c>
       <c r="F47" s="7"/>
-      <c r="G47" s="41"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2018,10 +3125,10 @@
         <v>142</v>
       </c>
       <c r="F48" s="7"/>
-      <c r="G48" s="41"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2029,10 +3136,10 @@
         <v>94</v>
       </c>
       <c r="F49" s="7"/>
-      <c r="G49" s="41"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2040,10 +3147,10 @@
         <v>95</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="41"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2051,190 +3158,190 @@
         <v>96</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="41"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>23</v>
       </c>
       <c r="F52" s="7"/>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="48" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="7"/>
-      <c r="G53" s="41"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="41"/>
+      <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="7"/>
-      <c r="G55" s="41"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="41"/>
+      <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="41"/>
+      <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="7"/>
-      <c r="G58" s="41"/>
+      <c r="G58" s="48"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F59" s="7"/>
-      <c r="G59" s="41"/>
+      <c r="G59" s="48"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F60" s="7"/>
-      <c r="G60" s="41" t="s">
+      <c r="G60" s="48" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="41"/>
+      <c r="G61" s="48"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="16" t="s">
         <v>102</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="41"/>
+      <c r="G62" s="48"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="41"/>
+      <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="50"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="41"/>
+      <c r="G64" s="48"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="7"/>
-      <c r="G65" s="41"/>
+      <c r="G65" s="48"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="16" t="s">
         <v>106</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="G66" s="41"/>
+      <c r="G66" s="48"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+      <c r="A67" s="50"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="G67" s="41"/>
+      <c r="G67" s="48"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="7"/>
@@ -2247,97 +3354,97 @@
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="41" t="s">
+      <c r="G69" s="48" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F70" s="7"/>
-      <c r="G70" s="41"/>
+      <c r="G70" s="48"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F71" s="7"/>
-      <c r="G71" s="41"/>
+      <c r="G71" s="48"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="41"/>
+      <c r="G72" s="48"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="41"/>
+      <c r="G73" s="48"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="41"/>
+      <c r="G74" s="48"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="41"/>
+      <c r="G75" s="48"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="41"/>
+      <c r="G76" s="48"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2345,12 +3452,12 @@
         <v>112</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="41" t="s">
+      <c r="G77" s="48" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2358,10 +3465,10 @@
         <v>40</v>
       </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="41"/>
+      <c r="G78" s="48"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2369,10 +3476,10 @@
         <v>41</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="41"/>
+      <c r="G79" s="48"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2380,10 +3487,10 @@
         <v>42</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="G80" s="41"/>
+      <c r="G80" s="48"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2391,10 +3498,10 @@
         <v>43</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="41"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2402,10 +3509,10 @@
         <v>110</v>
       </c>
       <c r="F82" s="7"/>
-      <c r="G82" s="41"/>
+      <c r="G82" s="48"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2413,10 +3520,10 @@
         <v>45</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="41"/>
+      <c r="G83" s="48"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2424,10 +3531,10 @@
         <v>46</v>
       </c>
       <c r="F84" s="7"/>
-      <c r="G84" s="41"/>
+      <c r="G84" s="48"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2435,12 +3542,12 @@
         <v>47</v>
       </c>
       <c r="F85" s="7"/>
-      <c r="G85" s="41" t="s">
+      <c r="G85" s="48" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2448,10 +3555,10 @@
         <v>48</v>
       </c>
       <c r="F86" s="7"/>
-      <c r="G86" s="41"/>
+      <c r="G86" s="48"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2459,10 +3566,10 @@
         <v>49</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="41"/>
+      <c r="G87" s="48"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2470,10 +3577,10 @@
         <v>50</v>
       </c>
       <c r="F88" s="7"/>
-      <c r="G88" s="41"/>
+      <c r="G88" s="48"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2481,10 +3588,10 @@
         <v>51</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="41"/>
+      <c r="G89" s="48"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2492,10 +3599,10 @@
         <v>52</v>
       </c>
       <c r="F90" s="7"/>
-      <c r="G90" s="41"/>
+      <c r="G90" s="48"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2503,10 +3610,10 @@
         <v>53</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="41"/>
+      <c r="G91" s="48"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2514,113 +3621,113 @@
         <v>54</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="41"/>
+      <c r="G92" s="48"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F93" s="7"/>
-      <c r="G93" s="41" t="s">
+      <c r="G93" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F94" s="7"/>
-      <c r="G94" s="41"/>
+      <c r="G94" s="48"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F95" s="7"/>
-      <c r="G95" s="41"/>
+      <c r="G95" s="48"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F96" s="7"/>
-      <c r="G96" s="41"/>
+      <c r="G96" s="48"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F97" s="7"/>
-      <c r="G97" s="41"/>
+      <c r="G97" s="48"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F98" s="7"/>
-      <c r="G98" s="41"/>
+      <c r="G98" s="48"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="17" t="s">
         <v>117</v>
       </c>
       <c r="F99" s="7"/>
-      <c r="G99" s="41"/>
+      <c r="G99" s="48"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F100" s="7"/>
-      <c r="G100" s="41"/>
+      <c r="G100" s="48"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2628,12 +3735,12 @@
         <v>61</v>
       </c>
       <c r="F102" s="7"/>
-      <c r="G102" s="41" t="s">
+      <c r="G102" s="48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2641,10 +3748,10 @@
         <v>62</v>
       </c>
       <c r="F103" s="7"/>
-      <c r="G103" s="41"/>
+      <c r="G103" s="48"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2652,10 +3759,10 @@
         <v>63</v>
       </c>
       <c r="F104" s="7"/>
-      <c r="G104" s="41"/>
+      <c r="G104" s="48"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2663,10 +3770,10 @@
         <v>64</v>
       </c>
       <c r="F105" s="7"/>
-      <c r="G105" s="41"/>
+      <c r="G105" s="48"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2674,10 +3781,10 @@
         <v>143</v>
       </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="41"/>
+      <c r="G106" s="48"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="39"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2685,10 +3792,10 @@
         <v>9</v>
       </c>
       <c r="F107" s="7"/>
-      <c r="G107" s="41"/>
+      <c r="G107" s="48"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2696,10 +3803,10 @@
         <v>65</v>
       </c>
       <c r="F108" s="7"/>
-      <c r="G108" s="41"/>
+      <c r="G108" s="48"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2707,113 +3814,113 @@
         <v>39</v>
       </c>
       <c r="F109" s="7"/>
-      <c r="G109" s="41"/>
+      <c r="G109" s="48"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F110" s="7"/>
-      <c r="G110" s="41" t="s">
+      <c r="G110" s="48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="15" t="s">
+      <c r="E111" s="14" t="s">
         <v>120</v>
       </c>
       <c r="F111" s="7"/>
-      <c r="G111" s="41"/>
+      <c r="G111" s="48"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F112" s="7"/>
-      <c r="G112" s="41"/>
+      <c r="G112" s="48"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="39"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="14" t="s">
         <v>122</v>
       </c>
       <c r="F113" s="7"/>
-      <c r="G113" s="41"/>
+      <c r="G113" s="48"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="39"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="15" t="s">
+      <c r="E114" s="14" t="s">
         <v>144</v>
       </c>
       <c r="F114" s="7"/>
-      <c r="G114" s="41"/>
+      <c r="G114" s="48"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F115" s="7"/>
-      <c r="G115" s="41"/>
+      <c r="G115" s="48"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="39"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="15" t="s">
+      <c r="E116" s="14" t="s">
         <v>123</v>
       </c>
       <c r="F116" s="7"/>
-      <c r="G116" s="41"/>
+      <c r="G116" s="48"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F117" s="7"/>
-      <c r="G117" s="41"/>
+      <c r="G117" s="48"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="53" t="s">
         <v>66</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="19" t="s">
         <v>126</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2821,12 +3928,12 @@
         <v>127</v>
       </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="36" t="s">
+      <c r="G119" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2834,10 +3941,10 @@
         <v>128</v>
       </c>
       <c r="F120" s="7"/>
-      <c r="G120" s="36"/>
+      <c r="G120" s="49"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2845,10 +3952,10 @@
         <v>129</v>
       </c>
       <c r="F121" s="7"/>
-      <c r="G121" s="36"/>
+      <c r="G121" s="49"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2856,10 +3963,10 @@
         <v>130</v>
       </c>
       <c r="F122" s="7"/>
-      <c r="G122" s="36"/>
+      <c r="G122" s="49"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2867,10 +3974,10 @@
         <v>139</v>
       </c>
       <c r="F123" s="7"/>
-      <c r="G123" s="36"/>
+      <c r="G123" s="49"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2878,10 +3985,10 @@
         <v>9</v>
       </c>
       <c r="F124" s="7"/>
-      <c r="G124" s="36"/>
+      <c r="G124" s="49"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2889,10 +3996,10 @@
         <v>131</v>
       </c>
       <c r="F125" s="7"/>
-      <c r="G125" s="36"/>
+      <c r="G125" s="49"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2900,105 +4007,100 @@
         <v>39</v>
       </c>
       <c r="F126" s="7"/>
-      <c r="G126" s="36"/>
+      <c r="G126" s="49"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="18" t="s">
         <v>132</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="36" t="s">
+      <c r="G127" s="49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="18" t="s">
         <v>136</v>
       </c>
       <c r="F128" s="7"/>
-      <c r="G128" s="36"/>
+      <c r="G128" s="49"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="18" t="s">
         <v>137</v>
       </c>
       <c r="F129" s="7"/>
-      <c r="G129" s="36"/>
+      <c r="G129" s="49"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="18" t="s">
         <v>133</v>
       </c>
       <c r="F130" s="7"/>
-      <c r="G130" s="36"/>
+      <c r="G130" s="49"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="18" t="s">
         <v>138</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="36"/>
+      <c r="G131" s="49"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
-      <c r="E132" s="19" t="s">
+      <c r="E132" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F132" s="7"/>
-      <c r="G132" s="36"/>
+      <c r="G132" s="49"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="18" t="s">
         <v>134</v>
       </c>
       <c r="F133" s="7"/>
-      <c r="G133" s="36"/>
+      <c r="G133" s="49"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="53"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F134" s="7"/>
-      <c r="G134" s="36"/>
+      <c r="G134" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G19:G26"/>
-    <mergeCell ref="G28:G35"/>
     <mergeCell ref="G127:G134"/>
     <mergeCell ref="A27:A67"/>
     <mergeCell ref="A68:A100"/>
@@ -3015,564 +4117,14 @@
     <mergeCell ref="G85:G92"/>
     <mergeCell ref="G36:G43"/>
     <mergeCell ref="G44:G51"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="G28:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3D72B7-A381-4910-8796-0826B6CF0365}">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="97.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22" style="8" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.21875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A29:F29"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EED21836-BADF-4ADE-AC17-DA0E83D8DFA8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFAA8F6-1291-4E41-9C01-227E1A3E91FF}">
-  <dimension ref="C5:D6"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8.88671875" style="8"/>
-    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>